--- a/Documentation/Phase_3/External Documents/Data Dictionary.xlsx
+++ b/Documentation/Phase_3/External Documents/Data Dictionary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS70\Dropbox\CIS375\Drafts\SRS\Dictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS70\Dropbox\CIS375\Drafts\SWFinal\Dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="639" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="639" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="180">
   <si>
     <t>Name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Orders</t>
   </si>
   <si>
-    <t>Seconds</t>
-  </si>
-  <si>
     <t>Data Items Included</t>
   </si>
   <si>
@@ -74,18 +71,12 @@
     <t>Holds the totes that have arrived at a given Picking Station while they wait to be picked</t>
   </si>
   <si>
-    <t>Ticks</t>
-  </si>
-  <si>
     <t>Data Flows Included</t>
   </si>
   <si>
     <t>Assigned Number</t>
   </si>
   <si>
-    <t>Dollars</t>
-  </si>
-  <si>
     <t>Use Case(s) Involved In</t>
   </si>
   <si>
@@ -104,12 +95,6 @@
     <t>Evaluates the situation of a given Tote at a certain point in the system, and routes it accordingly</t>
   </si>
   <si>
-    <t>Totes</t>
-  </si>
-  <si>
-    <t>Seconds/Item</t>
-  </si>
-  <si>
     <t>Item Number</t>
   </si>
   <si>
@@ -215,9 +200,6 @@
     <t>Customer Accounts</t>
   </si>
   <si>
-    <t>Inventory</t>
-  </si>
-  <si>
     <t>Store info</t>
   </si>
   <si>
@@ -236,9 +218,6 @@
     <t>Name, Address, Account number, Prescriptions</t>
   </si>
   <si>
-    <t>Item name, Item number, Vendor, Coupled item, Dose, Price, Discount</t>
-  </si>
-  <si>
     <t>High threshold, low threshold, reorderlevel, AccuStockSense(Percentage change, direction, frequency), quantity held</t>
   </si>
   <si>
@@ -257,9 +236,6 @@
     <t>Ring Up Customer</t>
   </si>
   <si>
-    <t>Ring Up Customer, Update Sales Promotions and Related Items, View/Update Store Info/ Close Store, Manage Inventory</t>
-  </si>
-  <si>
     <t>Ring up Customer, View/Update Store Info/ Close Store, Manage Inventory</t>
   </si>
   <si>
@@ -278,15 +254,9 @@
     <t>Contains customer information used for identification and prescription refil validation</t>
   </si>
   <si>
-    <t>The items the pharmacy company carries, and their general details</t>
-  </si>
-  <si>
     <t>Further details on inventory items contained within an individual store</t>
   </si>
   <si>
-    <t>Further details on stock from the warehouse</t>
-  </si>
-  <si>
     <t>Discounts for customer orders and their expiration details</t>
   </si>
   <si>
@@ -329,12 +299,6 @@
     <t>Reorder Level</t>
   </si>
   <si>
-    <t>Reorder Date</t>
-  </si>
-  <si>
-    <t>Restock Date</t>
-  </si>
-  <si>
     <t>Reorder Quantity</t>
   </si>
   <si>
@@ -353,9 +317,6 @@
     <t>Another item for suggestion when an item is added to an order</t>
   </si>
   <si>
-    <t>The supplier to the pharmacy for an inventory item</t>
-  </si>
-  <si>
     <t>The commonly used name for an item</t>
   </si>
   <si>
@@ -371,18 +332,12 @@
     <t>The selling point where an item's Reorder Level is to be increased when hit consistently</t>
   </si>
   <si>
-    <t>The amount the Reorder Level is to change by upon AccuStock adjustment</t>
-  </si>
-  <si>
     <t>Indicator of increase or decrease for AccuStock adjustment</t>
   </si>
   <si>
     <t>The measure of how often the threshold has been met</t>
   </si>
   <si>
-    <t xml:space="preserve">The amout to which items are reorded to match when they fall below </t>
-  </si>
-  <si>
     <t>Cashier</t>
   </si>
   <si>
@@ -431,15 +386,6 @@
     <t>2. View/Update Store Info/Close Store, 3. Sales Report Creation, 5.Manage Inventory</t>
   </si>
   <si>
-    <t>The most recent date a warehouse order was placed for an item</t>
-  </si>
-  <si>
-    <t>The date the item shipment is expected to arrive at the warehouse</t>
-  </si>
-  <si>
-    <t>The amount for order by the warehouse. Sum of all stores' reorder levels</t>
-  </si>
-  <si>
     <t>The time an item shipment is expected to take to arrive after reorder</t>
   </si>
   <si>
@@ -449,9 +395,6 @@
     <t>Percent</t>
   </si>
   <si>
-    <t>Volume</t>
-  </si>
-  <si>
     <t>Inventory Information</t>
   </si>
   <si>
@@ -488,12 +431,6 @@
     <t>Item Number, Item Name, Quantity held, Restock Date, Restock Delay, Discount, Reorder level, Reorder QuantityHigh Threshold, Low Threshold, Percentage Change, Direction, Frequency, Reorder Quantity</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>The amount of an item being referenced</t>
-  </si>
-  <si>
     <t>Item name, item Number, Dose, Vendor, Quantity</t>
   </si>
   <si>
@@ -503,9 +440,6 @@
     <t>System, Sales Manager, Inventory</t>
   </si>
   <si>
-    <t>Sales Manager, Inventory</t>
-  </si>
-  <si>
     <t>Vendor, Cashier, Inventory, Customer Accounts</t>
   </si>
   <si>
@@ -533,9 +467,6 @@
     <t>System, Inventory Manager, Inventory Change, Inventory Information, Inventory, Vendor</t>
   </si>
   <si>
-    <t>Warehouse Inventory, Inventory Manager</t>
-  </si>
-  <si>
     <t>Warehouse Inventory, Inventory Manager, Store Inventory</t>
   </si>
   <si>
@@ -549,6 +480,90 @@
   </si>
   <si>
     <t>Inventory information, Inventory change, Item orders, Item shipments</t>
+  </si>
+  <si>
+    <t>The items the pharmacy company carries, their warehouse details, and their general details</t>
+  </si>
+  <si>
+    <t>Warehouse Quantity</t>
+  </si>
+  <si>
+    <t>The amount of an item being held at the warehouse</t>
+  </si>
+  <si>
+    <t>Store Quantity</t>
+  </si>
+  <si>
+    <t>The amount of an item being held at a store</t>
+  </si>
+  <si>
+    <t>The amount of an item for order when reorder level is reached</t>
+  </si>
+  <si>
+    <t>The point at which items are automatically reordered</t>
+  </si>
+  <si>
+    <t>A description of the item is held</t>
+  </si>
+  <si>
+    <t>Vendor ID</t>
+  </si>
+  <si>
+    <t>The code for the supplier to the pharmacy of an inventory item</t>
+  </si>
+  <si>
+    <t>Restock Quantity</t>
+  </si>
+  <si>
+    <t>The amount that is reordered when default level is reached</t>
+  </si>
+  <si>
+    <t>The amount the Restock Quantity is to change by upon AccuStock adjustment</t>
+  </si>
+  <si>
+    <t>Default level</t>
+  </si>
+  <si>
+    <t>The point items are reordered when greater than store quantity</t>
+  </si>
+  <si>
+    <t>Inventory Manager, Store inventory, System</t>
+  </si>
+  <si>
+    <t>Inventory Manager, Store inventory, System, Cashier</t>
+  </si>
+  <si>
+    <t>Sales Manager, Warehouse Inventory</t>
+  </si>
+  <si>
+    <t>Assigned String</t>
+  </si>
+  <si>
+    <t>20 Characters</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>100 Characters</t>
+  </si>
+  <si>
+    <t>1 Character</t>
+  </si>
+  <si>
+    <t>Assigned Letter</t>
+  </si>
+  <si>
+    <t>Assigned number</t>
+  </si>
+  <si>
+    <t>Derived Number</t>
+  </si>
+  <si>
+    <t>Assigned NUmber</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -602,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -611,16 +626,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,7 +1009,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1029,122 +1047,122 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>125</v>
+      <c r="B6" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>130</v>
+      <c r="A7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>30</v>
+      <c r="A8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>133</v>
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>33</v>
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A3:C10">
@@ -1157,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1187,7 @@
     <col min="2" max="2" width="79.5703125" customWidth="1"/>
     <col min="3" max="3" width="111.140625" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1183,95 +1201,100 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>141</v>
+      <c r="E3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>137</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>9999999999</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="1">
+        <v>150</v>
+      </c>
+      <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>140</v>
+      <c r="E5" s="8">
+        <v>9999999999</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>150</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1279,333 +1302,373 @@
         <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>6</v>
+        <v>169</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>100</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
+        <v>138</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
+        <v>145</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>100</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>9999999999</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>140</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="1">
+        <v>140</v>
+      </c>
+      <c r="D13" s="8">
         <v>0</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
+      <c r="E13" s="8">
+        <v>9999999999</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
+        <v>142</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="1">
+        <v>144</v>
+      </c>
+      <c r="D15" s="8">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>140</v>
+      <c r="E15" s="8">
+        <v>9999999998</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>145</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="1">
+        <v>143</v>
+      </c>
+      <c r="D17" s="8">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>27</v>
+      <c r="E17" s="8">
+        <v>100</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>18</v>
+        <v>147</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>9999999999</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>148</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>9999999999</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
+        <v>149</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="1">
+        <v>167</v>
+      </c>
+      <c r="D21" s="8">
         <v>0</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
+      <c r="E21" s="8">
+        <v>9999999999</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>18</v>
+        <v>168</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>9999999999</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>9999</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A3:B22">
+  <sortState ref="A4:G27">
     <sortCondition ref="A3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1617,7 +1680,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,63 +1702,63 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1709,17 +1772,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78" customWidth="1"/>
-    <col min="3" max="3" width="106.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" customWidth="1"/>
     <col min="4" max="4" width="117.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1734,35 +1797,35 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1770,69 +1833,55 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>66</v>
+      <c r="A8" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1848,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1880,87 +1929,87 @@
       <c r="I1" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1975,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,77 +2047,77 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
